--- a/biology/Médecine/Gaine_carotidienne/Gaine_carotidienne.xlsx
+++ b/biology/Médecine/Gaine_carotidienne/Gaine_carotidienne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La gaine carotidienne (ou gaine vasculaire du cou) est le tissu conjonctif fibreux qui entoure le compartiment vasculo-nerveux du cou.
 </t>
@@ -511,9 +523,11 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La gaine carotidienne est constitué par les lames superficielle, prétrachéale et prévertébrale du fascia cervical. Elles forment une structure tubulaire verticale de la base du crâne à la première côte et au sternum[1] (entre C7 et T4). Un septum divise le canal en trois compartiments.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La gaine carotidienne est constitué par les lames superficielle, prétrachéale et prévertébrale du fascia cervical. Elles forment une structure tubulaire verticale de la base du crâne à la première côte et au sternum (entre C7 et T4). Un septum divise le canal en trois compartiments.
 Elle se situe à la limite latérale de l'espace rétropharyngien au niveau de l'oropharynx de chaque côté du cou et en profondeur jusqu'au muscle sterno-cléido-mastoïdien puis elle passe latéralement au pharynx, à la trachée, à la glande thyroïde et à l'œsophage.
 Son trajet passe devant les tubercules antérieurs des apophyses transverses des vertèbres cervicales et les muscles qui y sont reliés, en avant et en dehors de la chaîne sympathique et en arrière du muscle sterno-cléido-mastoïdien.
 Dans sa partie inférieure, elle se confond avec la gaine axillaire lorsqu'elle atteint la veine sous-clavière.
@@ -545,7 +559,9 @@
           <t>Contenu</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Sa partie interne est occupée par l'artère carotide commune qui se divise dans la zone supérieure en artère carotide interne et artère carotide externe.
 Latéralement à l'artère, passe la veine jugulaire interne.
@@ -580,7 +596,9 @@
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La gaine carotidienne peut parfois servir de conduit de propagation des infections.
 </t>
